--- a/medicine/Enfance/Gabrielle_Vincent/Gabrielle_Vincent.xlsx
+++ b/medicine/Enfance/Gabrielle_Vincent/Gabrielle_Vincent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monique Martin, connue également sous le pseudonyme de Gabrielle Vincent[1], née à Bruxelles (Ixelles) le 9 septembre 1928 et morte dans la même ville le 24 septembre 2000, est une autrice belge de livres pour enfants, essentiellement connue pour sa série jeunesse Ernest et Célestine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monique Martin, connue également sous le pseudonyme de Gabrielle Vincent, née à Bruxelles (Ixelles) le 9 septembre 1928 et morte dans la même ville le 24 septembre 2000, est une autrice belge de livres pour enfants, essentiellement connue pour sa série jeunesse Ernest et Célestine.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle étudie à l'Académie royale des beaux-arts de Bruxelles[1].
-D'abord peintre et aquarelliste[2], elle crée en 1981 la série Ernest et Célestine, dont elle est autrice-illustratrice, et choisit de prendre comme pseudonyme Gabrielle Vincent. Le premier ouvrage de la série : Ernest et Célestine ont perdu Siméon, remporte plusieurs prix[1]. « Le gros ours tendre et la petite souris, devenus un couple de référence dans le monde des albums pour enfants, apportent à leur créatrice une reconnaissance internationale[1] », selon l'Encyclopedia Universalis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle étudie à l'Académie royale des beaux-arts de Bruxelles.
+D'abord peintre et aquarelliste, elle crée en 1981 la série Ernest et Célestine, dont elle est autrice-illustratrice, et choisit de prendre comme pseudonyme Gabrielle Vincent. Le premier ouvrage de la série : Ernest et Célestine ont perdu Siméon, remporte plusieurs prix. « Le gros ours tendre et la petite souris, devenus un couple de référence dans le monde des albums pour enfants, apportent à leur créatrice une reconnaissance internationale », selon l'Encyclopedia Universalis.
 La série Ernest et Célestine est adaptée pour le cinéma en 2012 en film d'animation au même titre ; la réalisation est de Benjamin Renner, Vincent Patar et Stéphane Aubier, sur un scénario de Daniel Pennac.
 Ses albums sont édités par les éditions Duculot, puis par Casterman et l'École des loisirs.
-La revue Griffon lui a consacré un dossier 'Monique Martin : Gabrielle Vincent", en 1996[3].
-Elle est inhumée au cimetière d'Ixelles, à Bruxelles[4].
+La revue Griffon lui a consacré un dossier 'Monique Martin : Gabrielle Vincent", en 1996.
+Elle est inhumée au cimetière d'Ixelles, à Bruxelles.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012 la fondation belge d'utilité publique Monique Martin[5] est créée par Benoît Attout, son filleul et ayant droit.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012 la fondation belge d'utilité publique Monique Martin est créée par Benoît Attout, son filleul et ayant droit.
 </t>
         </is>
       </c>
@@ -580,15 +596,62 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Autrice et illustratrice
-La série Ernest et Célestine
-Elle est créée en 1981, avec le premier ouvrage Ernest et Célestine ont perdu Siméon.
-Autres
-Sous le nom de Monique Martin
+          <t>Autrice et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>La série Ernest et Célestine</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est créée en 1981, avec le premier ouvrage Ernest et Célestine ont perdu Siméon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autrice et illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sous le nom de Monique Martin
 Le Petit Ange à Bruxelles, G. Blanchard, 1970
 L’enfant, la femme, l’Homme, 1979
 Un jour, un chien, Duculot, 1982 Sankei Children's Books Publication Prize 1988
-L'œuf, Duculot, 1983  « Mention »  Premio Grafico Fiera di Bologna per la Gioventù, Foire du livre de jeunesse de Bologne 1984[6]
+L'œuf, Duculot, 1983  « Mention »  Premio Grafico Fiera di Bologna per la Gioventù, Foire du livre de jeunesse de Bologne 1984
 Carnet du désert, Blondiau, 1992
 Au désert, Duculot, 1992
 Lettre à une amie, éd. Blondiau, 1993 – hors commerce ; dessins réalisés en 1967
@@ -612,105 +675,282 @@
 J'ai une lettre pour vous, Casterman, 1995
 La Montgolfière, Casterman, 1996
 Mon jardin perdu, Casterman, 1996
-Nabil (2000), publié en langue française, Rue du monde, en 2004[7])  « Mention » Fiction Young Adults, Foire du livre de jeunesse de Bologne 2001[8]
-Le Violoniste (2001) (publié en langue française en 2006)
-Illustratrice
-Jacques Brel, Les Vieux, ill. de Gabrielle Vincent, Duculot, 1989
+Nabil (2000), publié en langue française, Rue du monde, en 2004)  « Mention » Fiction Young Adults, Foire du livre de jeunesse de Bologne 2001
+Le Violoniste (2001) (publié en langue française en 2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jacques Brel, Les Vieux, ill. de Gabrielle Vincent, Duculot, 1989
 Marie-Claire d'Orbaix, Devenir la joie du brin d'herbe ; suivi de Notes finales, ill. de Monique Martin, P. Zech, 1991
 Pili Mandelbaum, Histoires au bord du lit, ill. de Gabrielle Vincent, Duculot, 1991
 Jacques Brel, Moi, je t’offrirai des perles de pluie, ill. Monique Martin, Duculot, 1993
-Jacques Brel, Orly, ill. Monique Martin, hors commerce, Duculot, 1993
-Entretiens
-Gabrielle Vincent "au jour le jour" : conversation avec Arnaud de la Croix, Gabrielle Vincent, Arnaud de la Croix, éd. Tandem, 2001</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gabrielle_Vincent</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gabrielle_Vincent</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Jacques Brel, Orly, ill. Monique Martin, hors commerce, Duculot, 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Entretiens</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Gabrielle Vincent "au jour le jour" : conversation avec Arnaud de la Croix, Gabrielle Vincent, Arnaud de la Croix, éd. Tandem, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1982 :
- Parents Choice[1] pour Ernest et Célestine ont perdu Siméon (série jeunesse Ernest et Célestine)
+ Parents Choice pour Ernest et Célestine ont perdu Siméon (série jeunesse Ernest et Célestine)
  Prix du Ministre belge de la Culture française pour Ernest et Célestine, musiciens des rues
- Top dix meilleurs albums illustrés, New York Times[1] pour Ernest et Célestine chez le photographe
- Prix de la Fondation de France[1] pour Ernest et Célestine chez le photographe
+ Top dix meilleurs albums illustrés, New York Times pour Ernest et Célestine chez le photographe
+ Prix de la Fondation de France pour Ernest et Célestine chez le photographe
 1983 :
- Médaille de bronze du Prix Plantin Moretus[1] pour Ernest et Célestine chez le photographe
+ Médaille de bronze du Prix Plantin Moretus pour Ernest et Célestine chez le photographe
  Prix Tom Pouce (Prix du livre pour la petite enfance créé par le Ministère de la Famille en France) pour Noël chez Ernest et Célestine
 1984 :
-  « Mention » Sankei Children's Books Publication Prize[1] pour Ernest et Célestine ont perdu Siméon et pour Ernest et Célestine chez le photographe
- « Mention »  Premio Grafico Fiera di Bologna per la Gioventù, Foire du livre de jeunesse de Bologne[6] (Italie) pour L'œuf (publié sous son véritable nom de Monique Martin)
+  « Mention » Sankei Children's Books Publication Prize pour Ernest et Célestine ont perdu Siméon et pour Ernest et Célestine chez le photographe
+ « Mention »  Premio Grafico Fiera di Bologna per la Gioventù, Foire du livre de jeunesse de Bologne (Italie) pour L'œuf (publié sous son véritable nom de Monique Martin)
 1986 :  Mention d’honneur au Prix Plantin Moretus pour Ernest et Célestine au musée 
 1987 :  Mention – The Owl Prize (Mimizuku-Sho, Japon) pour Ernest et Célestine au musée 
 1988 :
- « Mention »  Prix Graphique, Foire du livre de jeunesse de Bologne[9] (Italie) pour La naissance de Célestine (série jeunesse Ernest et Célestine)
+ « Mention »  Prix Graphique, Foire du livre de jeunesse de Bologne (Italie) pour La naissance de Célestine (série jeunesse Ernest et Célestine)
   Prix de la Fondation de France (catégorie albums) pour La naissance de Célestine
  Sankei Children's Books Publication Prize pour Un jour, un chien
  Award, Foundaton for the Collective Promotion of the Dutch book pour Noël chez Ernest et Célestine
 1990 :  Médaille de bronze Prix Plantin Moretus pour Désordre au paradis
 1993 :  Totem Album, Salon du livre et de la presse jeunesse (Montreuil) pour Au bonheur des ours
-2001 :  « Mention »  Fiction Young Adults, Foire du livre de jeunesse de Bologne[8] (Italie) pour Nabil.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Gabrielle_Vincent</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gabrielle_Vincent</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+2001 :  « Mention »  Fiction Young Adults, Foire du livre de jeunesse de Bologne (Italie) pour Nabil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En roman jeunesse
-2012 : Le Roman d'Ernest et Célestine, roman jeunesse écrit par Daniel Pennac, Casterman
-Au cinéma
-2012 : Ernest et Célestine (d'après la série jeunesse éponyme), film d'animation belgo-franco-luxembourgeois, réalisé par Benjamin Renner, Vincent Patar et Stéphane Aubier, sur un scénario de Daniel Pennac.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En roman jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2012 : Le Roman d'Ernest et Célestine, roman jeunesse écrit par Daniel Pennac, Casterman</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Adaptations de son œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2012 : Ernest et Célestine (d'après la série jeunesse éponyme), film d'animation belgo-franco-luxembourgeois, réalisé par Benjamin Renner, Vincent Patar et Stéphane Aubier, sur un scénario de Daniel Pennac.
 2017 : Ernest et Célestine en hiver, film d'animation français (reprenant des épisodes de la série Ernest et Célestine, la collection) réalisé par Julien Chheng et Jean-Christophe Roger.
-2022 : Ernest et Célestine : Le Voyage en Charabie, suite du film de 2012, réalisée par Julien Chheng et Jean-Christophe Roger.
-En série d'animation
-2017 - en cours : Ernest et Célestine, la collection, série française.
-Au théâtre
-2011 : Ernest et Célestine ont perdu Siméon (d'après son ouvrage de 1981), pièce de théâtre de la compagnie 1.2.3 Soleil, adaptation, mise en scène et interprétation de Pascale Thévenon[10]</t>
+2022 : Ernest et Célestine : Le Voyage en Charabie, suite du film de 2012, réalisée par Julien Chheng et Jean-Christophe Roger.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Adaptations de son œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>En série d'animation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2017 - en cours : Ernest et Célestine, la collection, série française.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_Vincent</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Adaptations de son œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Au théâtre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2011 : Ernest et Célestine ont perdu Siméon (d'après son ouvrage de 1981), pièce de théâtre de la compagnie 1.2.3 Soleil, adaptation, mise en scène et interprétation de Pascale Thévenon</t>
         </is>
       </c>
     </row>
